--- a/gestion_projet/site vitrine.xlsx
+++ b/gestion_projet/site vitrine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="qqoqccp" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="fonctions" sheetId="4" r:id="rId4"/>
     <sheet name="MCD &amp; cie" sheetId="5" r:id="rId5"/>
     <sheet name="SQL" sheetId="6" r:id="rId6"/>
+    <sheet name="relations" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="110">
   <si>
     <t>qui</t>
   </si>
@@ -303,9 +304,6 @@
     <t>appel ts les jeux suivant categorie</t>
   </si>
   <si>
-    <t>WHERE categorie</t>
-  </si>
-  <si>
     <t>appel ts les perso suivant jeux</t>
   </si>
   <si>
@@ -346,6 +344,12 @@
   </si>
   <si>
     <t>WHERE id=:id</t>
+  </si>
+  <si>
+    <t>WHERE categorie=:categorie</t>
+  </si>
+  <si>
+    <t>WHERE j.name=:name</t>
   </si>
 </sst>
 </file>
@@ -537,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -547,17 +551,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1016,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1123,7 +1118,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1135,16 +1130,16 @@
       <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="18"/>
       <c r="I2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1347,14 +1342,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1441,10 +1436,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1631,223 +1626,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="N3" s="25"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J4" s="11"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="13"/>
+      <c r="J4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="13"/>
+        <v>104</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="13"/>
+      <c r="J6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="10" t="s">
+      <c r="J9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J13" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="19"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1858,4 +1836,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>